--- a/medicine/Enfance/Michel_Bonnet_(aide_à_l'enfance)/Michel_Bonnet_(aide_à_l'enfance).xlsx
+++ b/medicine/Enfance/Michel_Bonnet_(aide_à_l'enfance)/Michel_Bonnet_(aide_à_l'enfance).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michel_Bonnet_(aide_%C3%A0_l%27enfance)</t>
+          <t>Michel_Bonnet_(aide_à_l'enfance)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Bonnet, né en 1934 à Albi, est un spécialiste de la lutte contre l’exploitation des enfants. Il a été le principal expert de 1991 à 1996 auprès du Bureau international du travail, dans le cadre du programme international pour l'abolition du travail des enfants (IPEC)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Bonnet, né en 1934 à Albi, est un spécialiste de la lutte contre l’exploitation des enfants. Il a été le principal expert de 1991 à 1996 auprès du Bureau international du travail, dans le cadre du programme international pour l'abolition du travail des enfants (IPEC).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michel_Bonnet_(aide_%C3%A0_l%27enfance)</t>
+          <t>Michel_Bonnet_(aide_à_l'enfance)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1934 à Albi, il devient Prêtre ouvrier. Il parcourt le monde pendant plus de quinze ans à la rencontre des enfants travailleurs. Il quitte la prêtrise dans les années 1970[3],[4],[5]. 
-Pour accompagner son travail sur le terrain, Michel Bonnet contribue à des colloques et publie des ouvrages : pour lui, l'image que les médias des pays occidentaux diffusent sur le travail des enfants est très éloignée des réalités de terrain et marquée par l’incompréhension culturelle. Ces derniers « diffusent une sorte de pensée unique sur le travail des enfants qui se résume dans des images chocs d’enfants exploités dans les sweatshops de Bangkok, les bagnes de certains ateliers indiens ou pakistanais... »[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1934 à Albi, il devient Prêtre ouvrier. Il parcourt le monde pendant plus de quinze ans à la rencontre des enfants travailleurs. Il quitte la prêtrise dans les années 1970. 
+Pour accompagner son travail sur le terrain, Michel Bonnet contribue à des colloques et publie des ouvrages : pour lui, l'image que les médias des pays occidentaux diffusent sur le travail des enfants est très éloignée des réalités de terrain et marquée par l’incompréhension culturelle. Ces derniers « diffusent une sorte de pensée unique sur le travail des enfants qui se résume dans des images chocs d’enfants exploités dans les sweatshops de Bangkok, les bagnes de certains ateliers indiens ou pakistanais... ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michel_Bonnet_(aide_%C3%A0_l%27enfance)</t>
+          <t>Michel_Bonnet_(aide_à_l'enfance)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bonnet M. et al. (2006), Enfants travailleurs : Repenser l'enfance (Cahiers Libres), Lausanne, Editions Page 2,  (ISBN 2-940189-35-8), 184 p.
 Bonnet M. (1999), Le travail des enfants : terrain de luttes, Lausanne, Editions Page 2,  (ISBN 2-940189-15-3), 126 p.
